--- a/Munkanaplo.xlsx
+++ b/Munkanaplo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VS\Kirajok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tothr\Desktop\GitHub\Kirajok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C32590-F7E3-492A-87FD-258C8B66DFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D66BD3-64B3-4762-BA27-63FBDA4D5311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Lucky Kávézó munkapnapló</t>
   </si>
@@ -37,6 +37,60 @@
   </si>
   <si>
     <t>Időpont</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Szöveg a föoldalban</t>
+  </si>
+  <si>
+    <t>Reszponzivítás javítása</t>
+  </si>
+  <si>
+    <t>Háttár megváltoztatása</t>
+  </si>
+  <si>
+    <t>Kávéfajták</t>
+  </si>
+  <si>
+    <t>Képek k.</t>
+  </si>
+  <si>
+    <t>Szöveg k.</t>
+  </si>
+  <si>
+    <t>Háttér k.</t>
+  </si>
+  <si>
+    <t>Stílus k.</t>
+  </si>
+  <si>
+    <t>Sütemények</t>
+  </si>
+  <si>
+    <t>Képek s.</t>
+  </si>
+  <si>
+    <t>Háttér s.</t>
+  </si>
+  <si>
+    <t>Stílus s.</t>
+  </si>
+  <si>
+    <t>Tesztelés</t>
+  </si>
+  <si>
+    <t>Javítás</t>
+  </si>
+  <si>
+    <t>stilus</t>
+  </si>
+  <si>
+    <t>Reszponzívitás</t>
+  </si>
+  <si>
+    <t>Söveg s.</t>
   </si>
 </sst>
 </file>
@@ -154,9 +208,8 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -166,8 +219,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -451,361 +505,381 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="6"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D1:L5"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:H6"/>
@@ -816,7 +890,23 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D1:L5"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Munkanaplo.xlsx
+++ b/Munkanaplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tothr\Desktop\GitHub\Kirajok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D66BD3-64B3-4762-BA27-63FBDA4D5311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C03D4F9-BB8B-4C51-A11D-B53DF38FB450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Lucky Kávézó munkapnapló</t>
   </si>
@@ -91,13 +91,25 @@
   </si>
   <si>
     <t>Söveg s.</t>
+  </si>
+  <si>
+    <t>kész</t>
+  </si>
+  <si>
+    <t>Tóth Róbert</t>
+  </si>
+  <si>
+    <t>Szentpáli Richárd</t>
+  </si>
+  <si>
+    <t>Kiszler Bence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +133,16 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +160,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -201,15 +233,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,9 +339,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -503,382 +644,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:L29"/>
+  <dimension ref="D1:PR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="PJ3" s="13"/>
+      <c r="PK3" s="13"/>
+      <c r="PL3" s="13"/>
+      <c r="PM3" s="13"/>
+      <c r="PN3" s="13"/>
+      <c r="PO3" s="13"/>
+      <c r="PP3" s="13"/>
+      <c r="PQ3" s="13"/>
+      <c r="PR3" s="13"/>
+    </row>
+    <row r="4" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="PJ4" s="13"/>
+      <c r="PK4" s="13"/>
+      <c r="PL4" s="13"/>
+      <c r="PM4" s="13"/>
+      <c r="PN4" s="13"/>
+      <c r="PO4" s="13"/>
+      <c r="PP4" s="13"/>
+      <c r="PQ4" s="13"/>
+      <c r="PR4" s="13"/>
+    </row>
+    <row r="5" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="PJ5" s="13"/>
+      <c r="PK5" s="13"/>
+      <c r="PL5" s="13"/>
+      <c r="PM5" s="13"/>
+      <c r="PN5" s="13"/>
+      <c r="PO5" s="13"/>
+      <c r="PP5" s="13"/>
+      <c r="PQ5" s="13"/>
+      <c r="PR5" s="13"/>
+    </row>
+    <row r="6" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="3" t="s">
+      <c r="L6" s="6"/>
+      <c r="PJ6" s="13"/>
+      <c r="PK6" s="13"/>
+      <c r="PL6" s="13"/>
+      <c r="PM6" s="13"/>
+      <c r="PN6" s="13"/>
+      <c r="PO6" s="13"/>
+      <c r="PP6" s="13"/>
+      <c r="PQ6" s="13"/>
+      <c r="PR6" s="13"/>
+    </row>
+    <row r="7" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="12">
+        <v>44846</v>
+      </c>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="3" t="s">
+      <c r="PJ7" s="13"/>
+      <c r="PK7" s="13"/>
+      <c r="PL7" s="13"/>
+      <c r="PM7" s="13"/>
+      <c r="PN7" s="13"/>
+      <c r="PO7" s="13"/>
+      <c r="PP7" s="13"/>
+      <c r="PQ7" s="13"/>
+      <c r="PR7" s="13"/>
+    </row>
+    <row r="8" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="12">
+        <v>44846</v>
+      </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="3" t="s">
+    <row r="9" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="12">
+        <v>44853</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="3" t="s">
+    <row r="10" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="12">
+        <v>44853</v>
+      </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="12">
+        <v>44860</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="3" t="s">
+    <row r="12" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="12">
+        <v>44891</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D13" s="3" t="s">
+    <row r="13" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="12">
+        <v>44866</v>
+      </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="3" t="s">
+    <row r="14" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="12">
+        <v>44866</v>
+      </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="3" t="s">
+    <row r="15" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="12">
+        <v>44866</v>
+      </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="3" t="s">
+    <row r="16" spans="4:434" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="12">
+        <v>44872</v>
+      </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="12">
+        <v>44872</v>
+      </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="12">
+        <v>44876</v>
+      </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="12">
+        <v>44876</v>
+      </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="12">
+        <v>44876</v>
+      </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="1"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="12">
+        <v>44876</v>
+      </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="1"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="12">
+        <v>44876</v>
+      </c>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="2"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="14">
+        <v>44876</v>
+      </c>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="2"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="12">
+        <v>44876</v>
+      </c>
+      <c r="L24" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="23">
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="D1:L5"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D6:F6"/>
@@ -895,18 +1142,6 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Munkanaplo.xlsx
+++ b/Munkanaplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tothr\Desktop\GitHub\Kirajok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C03D4F9-BB8B-4C51-A11D-B53DF38FB450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0417AC9-4232-461A-8815-DE2C57292C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1356" windowWidth="17280" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,16 +133,8 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,12 +149,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,9 +313,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,21 +342,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -644,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:PR24"/>
+  <dimension ref="D1:PT24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,122 +644,176 @@
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="PJ3" s="13"/>
-      <c r="PK3" s="13"/>
-      <c r="PL3" s="13"/>
-      <c r="PM3" s="13"/>
-      <c r="PN3" s="13"/>
-      <c r="PO3" s="13"/>
-      <c r="PP3" s="13"/>
-      <c r="PQ3" s="13"/>
-      <c r="PR3" s="13"/>
-    </row>
-    <row r="4" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="PJ4" s="13"/>
-      <c r="PK4" s="13"/>
-      <c r="PL4" s="13"/>
-      <c r="PM4" s="13"/>
-      <c r="PN4" s="13"/>
-      <c r="PO4" s="13"/>
-      <c r="PP4" s="13"/>
-      <c r="PQ4" s="13"/>
-      <c r="PR4" s="13"/>
-    </row>
-    <row r="5" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="PJ5" s="13"/>
-      <c r="PK5" s="13"/>
-      <c r="PL5" s="13"/>
-      <c r="PM5" s="13"/>
-      <c r="PN5" s="13"/>
-      <c r="PO5" s="13"/>
-      <c r="PP5" s="13"/>
-      <c r="PQ5" s="13"/>
-      <c r="PR5" s="13"/>
-    </row>
-    <row r="6" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="PF1" s="18"/>
+      <c r="PG1" s="18"/>
+      <c r="PH1" s="18"/>
+      <c r="PI1" s="18"/>
+      <c r="PJ1" s="18"/>
+      <c r="PK1" s="18"/>
+      <c r="PL1" s="18"/>
+      <c r="PM1" s="18"/>
+      <c r="PN1" s="18"/>
+      <c r="PO1" s="18"/>
+      <c r="PP1" s="18"/>
+      <c r="PQ1" s="18"/>
+      <c r="PR1" s="18"/>
+      <c r="PS1" s="18"/>
+      <c r="PT1" s="18"/>
+    </row>
+    <row r="2" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="PF2" s="18"/>
+      <c r="PG2" s="18"/>
+      <c r="PH2" s="18"/>
+      <c r="PI2" s="18"/>
+      <c r="PJ2" s="18"/>
+      <c r="PK2" s="18"/>
+      <c r="PL2" s="18"/>
+      <c r="PM2" s="18"/>
+      <c r="PN2" s="18"/>
+      <c r="PO2" s="18"/>
+      <c r="PP2" s="18"/>
+      <c r="PQ2" s="18"/>
+      <c r="PR2" s="18"/>
+      <c r="PS2" s="18"/>
+      <c r="PT2" s="18"/>
+    </row>
+    <row r="3" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="PF3" s="18"/>
+      <c r="PG3" s="18"/>
+      <c r="PH3" s="18"/>
+      <c r="PI3" s="18"/>
+      <c r="PJ3" s="18"/>
+      <c r="PK3" s="18"/>
+      <c r="PL3" s="18"/>
+      <c r="PM3" s="18"/>
+      <c r="PN3" s="18"/>
+      <c r="PO3" s="18"/>
+      <c r="PP3" s="18"/>
+      <c r="PQ3" s="18"/>
+      <c r="PR3" s="18"/>
+      <c r="PS3" s="18"/>
+      <c r="PT3" s="18"/>
+    </row>
+    <row r="4" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="PF4" s="18"/>
+      <c r="PG4" s="18"/>
+      <c r="PH4" s="18"/>
+      <c r="PI4" s="18"/>
+      <c r="PJ4" s="18"/>
+      <c r="PK4" s="18"/>
+      <c r="PL4" s="18"/>
+      <c r="PM4" s="18"/>
+      <c r="PN4" s="18"/>
+      <c r="PO4" s="18"/>
+      <c r="PP4" s="18"/>
+      <c r="PQ4" s="18"/>
+      <c r="PR4" s="18"/>
+      <c r="PS4" s="18"/>
+      <c r="PT4" s="18"/>
+    </row>
+    <row r="5" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="PF5" s="18"/>
+      <c r="PG5" s="18"/>
+      <c r="PH5" s="18"/>
+      <c r="PI5" s="18"/>
+      <c r="PJ5" s="18"/>
+      <c r="PK5" s="18"/>
+      <c r="PL5" s="18"/>
+      <c r="PM5" s="18"/>
+      <c r="PN5" s="18"/>
+      <c r="PO5" s="18"/>
+      <c r="PP5" s="18"/>
+      <c r="PQ5" s="18"/>
+      <c r="PR5" s="18"/>
+      <c r="PS5" s="18"/>
+      <c r="PT5" s="18"/>
+    </row>
+    <row r="6" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="PJ6" s="13"/>
-      <c r="PK6" s="13"/>
-      <c r="PL6" s="13"/>
-      <c r="PM6" s="13"/>
-      <c r="PN6" s="13"/>
-      <c r="PO6" s="13"/>
-      <c r="PP6" s="13"/>
-      <c r="PQ6" s="13"/>
-      <c r="PR6" s="13"/>
-    </row>
-    <row r="7" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D7" s="4" t="s">
+      <c r="L6" s="12"/>
+      <c r="PF6" s="18"/>
+      <c r="PG6" s="18"/>
+      <c r="PH6" s="18"/>
+      <c r="PI6" s="18"/>
+      <c r="PJ6" s="18"/>
+      <c r="PK6" s="18"/>
+      <c r="PL6" s="18"/>
+      <c r="PM6" s="18"/>
+      <c r="PN6" s="18"/>
+      <c r="PO6" s="18"/>
+      <c r="PP6" s="18"/>
+      <c r="PQ6" s="18"/>
+      <c r="PR6" s="18"/>
+      <c r="PS6" s="18"/>
+      <c r="PT6" s="18"/>
+    </row>
+    <row r="7" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
@@ -780,26 +822,32 @@
         <v>22</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="12">
+      <c r="K7" s="5">
         <v>44846</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="PJ7" s="13"/>
-      <c r="PK7" s="13"/>
-      <c r="PL7" s="13"/>
-      <c r="PM7" s="13"/>
-      <c r="PN7" s="13"/>
-      <c r="PO7" s="13"/>
-      <c r="PP7" s="13"/>
-      <c r="PQ7" s="13"/>
-      <c r="PR7" s="13"/>
-    </row>
-    <row r="8" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
+      <c r="PF7" s="18"/>
+      <c r="PG7" s="18"/>
+      <c r="PH7" s="18"/>
+      <c r="PI7" s="18"/>
+      <c r="PJ7" s="18"/>
+      <c r="PK7" s="18"/>
+      <c r="PL7" s="18"/>
+      <c r="PM7" s="18"/>
+      <c r="PN7" s="18"/>
+      <c r="PO7" s="18"/>
+      <c r="PP7" s="18"/>
+      <c r="PQ7" s="18"/>
+      <c r="PR7" s="18"/>
+      <c r="PS7" s="18"/>
+      <c r="PT7" s="18"/>
+    </row>
+    <row r="8" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
@@ -808,17 +856,32 @@
         <v>22</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="12">
+      <c r="K8" s="5">
         <v>44846</v>
       </c>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D9" s="4" t="s">
+      <c r="PF8" s="18"/>
+      <c r="PG8" s="18"/>
+      <c r="PH8" s="18"/>
+      <c r="PI8" s="18"/>
+      <c r="PJ8" s="18"/>
+      <c r="PK8" s="18"/>
+      <c r="PL8" s="18"/>
+      <c r="PM8" s="18"/>
+      <c r="PN8" s="18"/>
+      <c r="PO8" s="18"/>
+      <c r="PP8" s="18"/>
+      <c r="PQ8" s="18"/>
+      <c r="PR8" s="18"/>
+      <c r="PS8" s="18"/>
+      <c r="PT8" s="18"/>
+    </row>
+    <row r="9" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
@@ -827,17 +890,32 @@
         <v>22</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="12">
+      <c r="K9" s="5">
         <v>44853</v>
       </c>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D10" s="4" t="s">
+      <c r="PF9" s="18"/>
+      <c r="PG9" s="18"/>
+      <c r="PH9" s="18"/>
+      <c r="PI9" s="18"/>
+      <c r="PJ9" s="18"/>
+      <c r="PK9" s="18"/>
+      <c r="PL9" s="18"/>
+      <c r="PM9" s="18"/>
+      <c r="PN9" s="18"/>
+      <c r="PO9" s="18"/>
+      <c r="PP9" s="18"/>
+      <c r="PQ9" s="18"/>
+      <c r="PR9" s="18"/>
+      <c r="PS9" s="18"/>
+      <c r="PT9" s="18"/>
+    </row>
+    <row r="10" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
@@ -846,17 +924,32 @@
         <v>22</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="12">
+      <c r="K10" s="5">
         <v>44853</v>
       </c>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D11" s="4" t="s">
+      <c r="PF10" s="18"/>
+      <c r="PG10" s="18"/>
+      <c r="PH10" s="18"/>
+      <c r="PI10" s="18"/>
+      <c r="PJ10" s="18"/>
+      <c r="PK10" s="18"/>
+      <c r="PL10" s="18"/>
+      <c r="PM10" s="18"/>
+      <c r="PN10" s="18"/>
+      <c r="PO10" s="18"/>
+      <c r="PP10" s="18"/>
+      <c r="PQ10" s="18"/>
+      <c r="PR10" s="18"/>
+      <c r="PS10" s="18"/>
+      <c r="PT10" s="18"/>
+    </row>
+    <row r="11" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
@@ -865,17 +958,17 @@
         <v>22</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="12">
+      <c r="K11" s="5">
         <v>44860</v>
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D12" s="4" t="s">
+    <row r="12" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
@@ -884,17 +977,17 @@
         <v>22</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="12">
+      <c r="K12" s="5">
         <v>44891</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D13" s="4" t="s">
+    <row r="13" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
@@ -903,17 +996,17 @@
         <v>22</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="12">
+      <c r="K13" s="5">
         <v>44866</v>
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D14" s="4" t="s">
+    <row r="14" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="1" t="s">
         <v>25</v>
       </c>
@@ -922,17 +1015,17 @@
         <v>22</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="12">
+      <c r="K14" s="5">
         <v>44866</v>
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D15" s="4" t="s">
+    <row r="15" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
@@ -941,17 +1034,17 @@
         <v>22</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="12">
+      <c r="K15" s="5">
         <v>44866</v>
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="4:434" x14ac:dyDescent="0.3">
-      <c r="D16" s="4" t="s">
+    <row r="16" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
@@ -960,17 +1053,17 @@
         <v>22</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="12">
+      <c r="K16" s="5">
         <v>44872</v>
       </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="1" t="s">
         <v>25</v>
       </c>
@@ -979,17 +1072,17 @@
         <v>22</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="12">
+      <c r="K17" s="5">
         <v>44872</v>
       </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="1" t="s">
         <v>23</v>
       </c>
@@ -998,17 +1091,17 @@
         <v>22</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="12">
+      <c r="K18" s="5">
         <v>44876</v>
       </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1017,17 +1110,17 @@
         <v>22</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="12">
+      <c r="K19" s="5">
         <v>44876</v>
       </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1036,17 +1129,17 @@
         <v>22</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="12">
+      <c r="K20" s="5">
         <v>44876</v>
       </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1055,17 +1148,17 @@
         <v>22</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="12">
+      <c r="K21" s="5">
         <v>44876</v>
       </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1074,56 +1167,53 @@
         <v>22</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="12">
+      <c r="K22" s="5">
         <v>44876</v>
       </c>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="14">
+      <c r="H23" s="4"/>
+      <c r="I23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="6">
         <v>44876</v>
       </c>
-      <c r="L23" s="11"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="12">
+      <c r="H24" s="7"/>
+      <c r="I24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="5">
         <v>44876</v>
       </c>
-      <c r="L24" s="16"/>
+      <c r="L24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D1:L5"/>
@@ -1140,8 +1230,11 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Munkanaplo.xlsx
+++ b/Munkanaplo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tothr\Desktop\GitHub\Kirajok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totrob846\Documents\GitHub\Kirajok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0417AC9-4232-461A-8815-DE2C57292C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1356" windowWidth="17280" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="1350" windowWidth="17280" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>Lucky Kávézó munkapnapló</t>
   </si>
@@ -103,13 +102,16 @@
   </si>
   <si>
     <t>Kiszler Bence</t>
+  </si>
+  <si>
+    <t>nincs kész</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +326,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,9 +352,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -631,189 +633,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:PT24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D1" s="17" t="s">
+    <row r="1" spans="4:436">
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="PF1" s="18"/>
-      <c r="PG1" s="18"/>
-      <c r="PH1" s="18"/>
-      <c r="PI1" s="18"/>
-      <c r="PJ1" s="18"/>
-      <c r="PK1" s="18"/>
-      <c r="PL1" s="18"/>
-      <c r="PM1" s="18"/>
-      <c r="PN1" s="18"/>
-      <c r="PO1" s="18"/>
-      <c r="PP1" s="18"/>
-      <c r="PQ1" s="18"/>
-      <c r="PR1" s="18"/>
-      <c r="PS1" s="18"/>
-      <c r="PT1" s="18"/>
-    </row>
-    <row r="2" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="PF2" s="18"/>
-      <c r="PG2" s="18"/>
-      <c r="PH2" s="18"/>
-      <c r="PI2" s="18"/>
-      <c r="PJ2" s="18"/>
-      <c r="PK2" s="18"/>
-      <c r="PL2" s="18"/>
-      <c r="PM2" s="18"/>
-      <c r="PN2" s="18"/>
-      <c r="PO2" s="18"/>
-      <c r="PP2" s="18"/>
-      <c r="PQ2" s="18"/>
-      <c r="PR2" s="18"/>
-      <c r="PS2" s="18"/>
-      <c r="PT2" s="18"/>
-    </row>
-    <row r="3" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="PF3" s="18"/>
-      <c r="PG3" s="18"/>
-      <c r="PH3" s="18"/>
-      <c r="PI3" s="18"/>
-      <c r="PJ3" s="18"/>
-      <c r="PK3" s="18"/>
-      <c r="PL3" s="18"/>
-      <c r="PM3" s="18"/>
-      <c r="PN3" s="18"/>
-      <c r="PO3" s="18"/>
-      <c r="PP3" s="18"/>
-      <c r="PQ3" s="18"/>
-      <c r="PR3" s="18"/>
-      <c r="PS3" s="18"/>
-      <c r="PT3" s="18"/>
-    </row>
-    <row r="4" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="PF4" s="18"/>
-      <c r="PG4" s="18"/>
-      <c r="PH4" s="18"/>
-      <c r="PI4" s="18"/>
-      <c r="PJ4" s="18"/>
-      <c r="PK4" s="18"/>
-      <c r="PL4" s="18"/>
-      <c r="PM4" s="18"/>
-      <c r="PN4" s="18"/>
-      <c r="PO4" s="18"/>
-      <c r="PP4" s="18"/>
-      <c r="PQ4" s="18"/>
-      <c r="PR4" s="18"/>
-      <c r="PS4" s="18"/>
-      <c r="PT4" s="18"/>
-    </row>
-    <row r="5" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="PF5" s="18"/>
-      <c r="PG5" s="18"/>
-      <c r="PH5" s="18"/>
-      <c r="PI5" s="18"/>
-      <c r="PJ5" s="18"/>
-      <c r="PK5" s="18"/>
-      <c r="PL5" s="18"/>
-      <c r="PM5" s="18"/>
-      <c r="PN5" s="18"/>
-      <c r="PO5" s="18"/>
-      <c r="PP5" s="18"/>
-      <c r="PQ5" s="18"/>
-      <c r="PR5" s="18"/>
-      <c r="PS5" s="18"/>
-      <c r="PT5" s="18"/>
-    </row>
-    <row r="6" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="PF1" s="10"/>
+      <c r="PG1" s="10"/>
+      <c r="PH1" s="10"/>
+      <c r="PI1" s="10"/>
+      <c r="PJ1" s="10"/>
+      <c r="PK1" s="10"/>
+      <c r="PL1" s="10"/>
+      <c r="PM1" s="10"/>
+      <c r="PN1" s="10"/>
+      <c r="PO1" s="10"/>
+      <c r="PP1" s="10"/>
+      <c r="PQ1" s="10"/>
+      <c r="PR1" s="10"/>
+      <c r="PS1" s="10"/>
+      <c r="PT1" s="10"/>
+    </row>
+    <row r="2" spans="4:436">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="PF2" s="10"/>
+      <c r="PG2" s="10"/>
+      <c r="PH2" s="10"/>
+      <c r="PI2" s="10"/>
+      <c r="PJ2" s="10"/>
+      <c r="PK2" s="10"/>
+      <c r="PL2" s="10"/>
+      <c r="PM2" s="10"/>
+      <c r="PN2" s="10"/>
+      <c r="PO2" s="10"/>
+      <c r="PP2" s="10"/>
+      <c r="PQ2" s="10"/>
+      <c r="PR2" s="10"/>
+      <c r="PS2" s="10"/>
+      <c r="PT2" s="10"/>
+    </row>
+    <row r="3" spans="4:436">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="PF3" s="10"/>
+      <c r="PG3" s="10"/>
+      <c r="PH3" s="10"/>
+      <c r="PI3" s="10"/>
+      <c r="PJ3" s="10"/>
+      <c r="PK3" s="10"/>
+      <c r="PL3" s="10"/>
+      <c r="PM3" s="10"/>
+      <c r="PN3" s="10"/>
+      <c r="PO3" s="10"/>
+      <c r="PP3" s="10"/>
+      <c r="PQ3" s="10"/>
+      <c r="PR3" s="10"/>
+      <c r="PS3" s="10"/>
+      <c r="PT3" s="10"/>
+    </row>
+    <row r="4" spans="4:436">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="PF4" s="10"/>
+      <c r="PG4" s="10"/>
+      <c r="PH4" s="10"/>
+      <c r="PI4" s="10"/>
+      <c r="PJ4" s="10"/>
+      <c r="PK4" s="10"/>
+      <c r="PL4" s="10"/>
+      <c r="PM4" s="10"/>
+      <c r="PN4" s="10"/>
+      <c r="PO4" s="10"/>
+      <c r="PP4" s="10"/>
+      <c r="PQ4" s="10"/>
+      <c r="PR4" s="10"/>
+      <c r="PS4" s="10"/>
+      <c r="PT4" s="10"/>
+    </row>
+    <row r="5" spans="4:436">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="PF5" s="10"/>
+      <c r="PG5" s="10"/>
+      <c r="PH5" s="10"/>
+      <c r="PI5" s="10"/>
+      <c r="PJ5" s="10"/>
+      <c r="PK5" s="10"/>
+      <c r="PL5" s="10"/>
+      <c r="PM5" s="10"/>
+      <c r="PN5" s="10"/>
+      <c r="PO5" s="10"/>
+      <c r="PP5" s="10"/>
+      <c r="PQ5" s="10"/>
+      <c r="PR5" s="10"/>
+      <c r="PS5" s="10"/>
+      <c r="PT5" s="10"/>
+    </row>
+    <row r="6" spans="4:436">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="PF6" s="18"/>
-      <c r="PG6" s="18"/>
-      <c r="PH6" s="18"/>
-      <c r="PI6" s="18"/>
-      <c r="PJ6" s="18"/>
-      <c r="PK6" s="18"/>
-      <c r="PL6" s="18"/>
-      <c r="PM6" s="18"/>
-      <c r="PN6" s="18"/>
-      <c r="PO6" s="18"/>
-      <c r="PP6" s="18"/>
-      <c r="PQ6" s="18"/>
-      <c r="PR6" s="18"/>
-      <c r="PS6" s="18"/>
-      <c r="PT6" s="18"/>
-    </row>
-    <row r="7" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D7" s="10" t="s">
+      <c r="L6" s="13"/>
+      <c r="PF6" s="10"/>
+      <c r="PG6" s="10"/>
+      <c r="PH6" s="10"/>
+      <c r="PI6" s="10"/>
+      <c r="PJ6" s="10"/>
+      <c r="PK6" s="10"/>
+      <c r="PL6" s="10"/>
+      <c r="PM6" s="10"/>
+      <c r="PN6" s="10"/>
+      <c r="PO6" s="10"/>
+      <c r="PP6" s="10"/>
+      <c r="PQ6" s="10"/>
+      <c r="PR6" s="10"/>
+      <c r="PS6" s="10"/>
+      <c r="PT6" s="10"/>
+    </row>
+    <row r="7" spans="4:436">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
@@ -826,28 +828,28 @@
         <v>44846</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="PF7" s="18"/>
-      <c r="PG7" s="18"/>
-      <c r="PH7" s="18"/>
-      <c r="PI7" s="18"/>
-      <c r="PJ7" s="18"/>
-      <c r="PK7" s="18"/>
-      <c r="PL7" s="18"/>
-      <c r="PM7" s="18"/>
-      <c r="PN7" s="18"/>
-      <c r="PO7" s="18"/>
-      <c r="PP7" s="18"/>
-      <c r="PQ7" s="18"/>
-      <c r="PR7" s="18"/>
-      <c r="PS7" s="18"/>
-      <c r="PT7" s="18"/>
-    </row>
-    <row r="8" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D8" s="10" t="s">
+      <c r="PF7" s="10"/>
+      <c r="PG7" s="10"/>
+      <c r="PH7" s="10"/>
+      <c r="PI7" s="10"/>
+      <c r="PJ7" s="10"/>
+      <c r="PK7" s="10"/>
+      <c r="PL7" s="10"/>
+      <c r="PM7" s="10"/>
+      <c r="PN7" s="10"/>
+      <c r="PO7" s="10"/>
+      <c r="PP7" s="10"/>
+      <c r="PQ7" s="10"/>
+      <c r="PR7" s="10"/>
+      <c r="PS7" s="10"/>
+      <c r="PT7" s="10"/>
+    </row>
+    <row r="8" spans="4:436">
+      <c r="D8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
@@ -860,28 +862,28 @@
         <v>44846</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="PF8" s="18"/>
-      <c r="PG8" s="18"/>
-      <c r="PH8" s="18"/>
-      <c r="PI8" s="18"/>
-      <c r="PJ8" s="18"/>
-      <c r="PK8" s="18"/>
-      <c r="PL8" s="18"/>
-      <c r="PM8" s="18"/>
-      <c r="PN8" s="18"/>
-      <c r="PO8" s="18"/>
-      <c r="PP8" s="18"/>
-      <c r="PQ8" s="18"/>
-      <c r="PR8" s="18"/>
-      <c r="PS8" s="18"/>
-      <c r="PT8" s="18"/>
-    </row>
-    <row r="9" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D9" s="10" t="s">
+      <c r="PF8" s="10"/>
+      <c r="PG8" s="10"/>
+      <c r="PH8" s="10"/>
+      <c r="PI8" s="10"/>
+      <c r="PJ8" s="10"/>
+      <c r="PK8" s="10"/>
+      <c r="PL8" s="10"/>
+      <c r="PM8" s="10"/>
+      <c r="PN8" s="10"/>
+      <c r="PO8" s="10"/>
+      <c r="PP8" s="10"/>
+      <c r="PQ8" s="10"/>
+      <c r="PR8" s="10"/>
+      <c r="PS8" s="10"/>
+      <c r="PT8" s="10"/>
+    </row>
+    <row r="9" spans="4:436">
+      <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
@@ -894,28 +896,28 @@
         <v>44853</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="PF9" s="18"/>
-      <c r="PG9" s="18"/>
-      <c r="PH9" s="18"/>
-      <c r="PI9" s="18"/>
-      <c r="PJ9" s="18"/>
-      <c r="PK9" s="18"/>
-      <c r="PL9" s="18"/>
-      <c r="PM9" s="18"/>
-      <c r="PN9" s="18"/>
-      <c r="PO9" s="18"/>
-      <c r="PP9" s="18"/>
-      <c r="PQ9" s="18"/>
-      <c r="PR9" s="18"/>
-      <c r="PS9" s="18"/>
-      <c r="PT9" s="18"/>
-    </row>
-    <row r="10" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D10" s="10" t="s">
+      <c r="PF9" s="10"/>
+      <c r="PG9" s="10"/>
+      <c r="PH9" s="10"/>
+      <c r="PI9" s="10"/>
+      <c r="PJ9" s="10"/>
+      <c r="PK9" s="10"/>
+      <c r="PL9" s="10"/>
+      <c r="PM9" s="10"/>
+      <c r="PN9" s="10"/>
+      <c r="PO9" s="10"/>
+      <c r="PP9" s="10"/>
+      <c r="PQ9" s="10"/>
+      <c r="PR9" s="10"/>
+      <c r="PS9" s="10"/>
+      <c r="PT9" s="10"/>
+    </row>
+    <row r="10" spans="4:436">
+      <c r="D10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
@@ -928,28 +930,28 @@
         <v>44853</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="PF10" s="18"/>
-      <c r="PG10" s="18"/>
-      <c r="PH10" s="18"/>
-      <c r="PI10" s="18"/>
-      <c r="PJ10" s="18"/>
-      <c r="PK10" s="18"/>
-      <c r="PL10" s="18"/>
-      <c r="PM10" s="18"/>
-      <c r="PN10" s="18"/>
-      <c r="PO10" s="18"/>
-      <c r="PP10" s="18"/>
-      <c r="PQ10" s="18"/>
-      <c r="PR10" s="18"/>
-      <c r="PS10" s="18"/>
-      <c r="PT10" s="18"/>
-    </row>
-    <row r="11" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D11" s="10" t="s">
+      <c r="PF10" s="10"/>
+      <c r="PG10" s="10"/>
+      <c r="PH10" s="10"/>
+      <c r="PI10" s="10"/>
+      <c r="PJ10" s="10"/>
+      <c r="PK10" s="10"/>
+      <c r="PL10" s="10"/>
+      <c r="PM10" s="10"/>
+      <c r="PN10" s="10"/>
+      <c r="PO10" s="10"/>
+      <c r="PP10" s="10"/>
+      <c r="PQ10" s="10"/>
+      <c r="PR10" s="10"/>
+      <c r="PS10" s="10"/>
+      <c r="PT10" s="10"/>
+    </row>
+    <row r="11" spans="4:436">
+      <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
@@ -963,31 +965,29 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D12" s="10" t="s">
+    <row r="12" spans="4:436">
+      <c r="D12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="5">
-        <v>44891</v>
-      </c>
+      <c r="K12" s="5"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D13" s="10" t="s">
+    <row r="13" spans="4:436">
+      <c r="D13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1001,12 +1001,12 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D14" s="10" t="s">
+    <row r="14" spans="4:436">
+      <c r="D14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D15" s="10" t="s">
+    <row r="15" spans="4:436">
+      <c r="D15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="4:436" x14ac:dyDescent="0.3">
-      <c r="D16" s="10" t="s">
+    <row r="16" spans="4:436">
+      <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="10" t="s">
+    <row r="17" spans="4:12">
+      <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1077,12 +1077,12 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="10" t="s">
+    <row r="18" spans="4:12">
+      <c r="D18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="10" t="s">
+    <row r="19" spans="4:12">
+      <c r="D19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1115,12 +1115,12 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="10" t="s">
+    <row r="20" spans="4:12">
+      <c r="D20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1134,12 +1134,12 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="10" t="s">
+    <row r="21" spans="4:12">
+      <c r="D21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="10" t="s">
+    <row r="22" spans="4:12">
+      <c r="D22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="13" t="s">
+    <row r="23" spans="4:12">
+      <c r="D23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="3" t="s">
         <v>23</v>
       </c>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="16" t="s">
+    <row r="24" spans="4:12">
+      <c r="D24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="7" t="s">
         <v>24</v>
       </c>
@@ -1212,6 +1212,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D23:F23"/>
@@ -1228,13 +1235,6 @@
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Munkanaplo.xlsx
+++ b/Munkanaplo.xlsx
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +135,24 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -150,13 +168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,47 +329,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,7 +673,7 @@
   <dimension ref="D1:PT24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -647,580 +683,571 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:436">
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="PF1" s="10"/>
-      <c r="PG1" s="10"/>
-      <c r="PH1" s="10"/>
-      <c r="PI1" s="10"/>
-      <c r="PJ1" s="10"/>
-      <c r="PK1" s="10"/>
-      <c r="PL1" s="10"/>
-      <c r="PM1" s="10"/>
-      <c r="PN1" s="10"/>
-      <c r="PO1" s="10"/>
-      <c r="PP1" s="10"/>
-      <c r="PQ1" s="10"/>
-      <c r="PR1" s="10"/>
-      <c r="PS1" s="10"/>
-      <c r="PT1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="PF1" s="1"/>
+      <c r="PG1" s="1"/>
+      <c r="PH1" s="1"/>
+      <c r="PI1" s="1"/>
+      <c r="PJ1" s="1"/>
+      <c r="PK1" s="1"/>
+      <c r="PL1" s="1"/>
+      <c r="PM1" s="1"/>
+      <c r="PN1" s="1"/>
+      <c r="PO1" s="1"/>
+      <c r="PP1" s="1"/>
+      <c r="PQ1" s="1"/>
+      <c r="PR1" s="1"/>
+      <c r="PS1" s="1"/>
+      <c r="PT1" s="1"/>
     </row>
     <row r="2" spans="4:436">
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="PF2" s="10"/>
-      <c r="PG2" s="10"/>
-      <c r="PH2" s="10"/>
-      <c r="PI2" s="10"/>
-      <c r="PJ2" s="10"/>
-      <c r="PK2" s="10"/>
-      <c r="PL2" s="10"/>
-      <c r="PM2" s="10"/>
-      <c r="PN2" s="10"/>
-      <c r="PO2" s="10"/>
-      <c r="PP2" s="10"/>
-      <c r="PQ2" s="10"/>
-      <c r="PR2" s="10"/>
-      <c r="PS2" s="10"/>
-      <c r="PT2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="PF2" s="1"/>
+      <c r="PG2" s="1"/>
+      <c r="PH2" s="1"/>
+      <c r="PI2" s="1"/>
+      <c r="PJ2" s="1"/>
+      <c r="PK2" s="1"/>
+      <c r="PL2" s="1"/>
+      <c r="PM2" s="1"/>
+      <c r="PN2" s="1"/>
+      <c r="PO2" s="1"/>
+      <c r="PP2" s="1"/>
+      <c r="PQ2" s="1"/>
+      <c r="PR2" s="1"/>
+      <c r="PS2" s="1"/>
+      <c r="PT2" s="1"/>
     </row>
     <row r="3" spans="4:436">
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="PF3" s="10"/>
-      <c r="PG3" s="10"/>
-      <c r="PH3" s="10"/>
-      <c r="PI3" s="10"/>
-      <c r="PJ3" s="10"/>
-      <c r="PK3" s="10"/>
-      <c r="PL3" s="10"/>
-      <c r="PM3" s="10"/>
-      <c r="PN3" s="10"/>
-      <c r="PO3" s="10"/>
-      <c r="PP3" s="10"/>
-      <c r="PQ3" s="10"/>
-      <c r="PR3" s="10"/>
-      <c r="PS3" s="10"/>
-      <c r="PT3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="PF3" s="1"/>
+      <c r="PG3" s="1"/>
+      <c r="PH3" s="1"/>
+      <c r="PI3" s="1"/>
+      <c r="PJ3" s="1"/>
+      <c r="PK3" s="1"/>
+      <c r="PL3" s="1"/>
+      <c r="PM3" s="1"/>
+      <c r="PN3" s="1"/>
+      <c r="PO3" s="1"/>
+      <c r="PP3" s="1"/>
+      <c r="PQ3" s="1"/>
+      <c r="PR3" s="1"/>
+      <c r="PS3" s="1"/>
+      <c r="PT3" s="1"/>
     </row>
     <row r="4" spans="4:436">
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="PF4" s="10"/>
-      <c r="PG4" s="10"/>
-      <c r="PH4" s="10"/>
-      <c r="PI4" s="10"/>
-      <c r="PJ4" s="10"/>
-      <c r="PK4" s="10"/>
-      <c r="PL4" s="10"/>
-      <c r="PM4" s="10"/>
-      <c r="PN4" s="10"/>
-      <c r="PO4" s="10"/>
-      <c r="PP4" s="10"/>
-      <c r="PQ4" s="10"/>
-      <c r="PR4" s="10"/>
-      <c r="PS4" s="10"/>
-      <c r="PT4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="PF4" s="1"/>
+      <c r="PG4" s="1"/>
+      <c r="PH4" s="1"/>
+      <c r="PI4" s="1"/>
+      <c r="PJ4" s="1"/>
+      <c r="PK4" s="1"/>
+      <c r="PL4" s="1"/>
+      <c r="PM4" s="1"/>
+      <c r="PN4" s="1"/>
+      <c r="PO4" s="1"/>
+      <c r="PP4" s="1"/>
+      <c r="PQ4" s="1"/>
+      <c r="PR4" s="1"/>
+      <c r="PS4" s="1"/>
+      <c r="PT4" s="1"/>
     </row>
     <row r="5" spans="4:436">
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="PF5" s="10"/>
-      <c r="PG5" s="10"/>
-      <c r="PH5" s="10"/>
-      <c r="PI5" s="10"/>
-      <c r="PJ5" s="10"/>
-      <c r="PK5" s="10"/>
-      <c r="PL5" s="10"/>
-      <c r="PM5" s="10"/>
-      <c r="PN5" s="10"/>
-      <c r="PO5" s="10"/>
-      <c r="PP5" s="10"/>
-      <c r="PQ5" s="10"/>
-      <c r="PR5" s="10"/>
-      <c r="PS5" s="10"/>
-      <c r="PT5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="PF5" s="1"/>
+      <c r="PG5" s="1"/>
+      <c r="PH5" s="1"/>
+      <c r="PI5" s="1"/>
+      <c r="PJ5" s="1"/>
+      <c r="PK5" s="1"/>
+      <c r="PL5" s="1"/>
+      <c r="PM5" s="1"/>
+      <c r="PN5" s="1"/>
+      <c r="PO5" s="1"/>
+      <c r="PP5" s="1"/>
+      <c r="PQ5" s="1"/>
+      <c r="PR5" s="1"/>
+      <c r="PS5" s="1"/>
+      <c r="PT5" s="1"/>
     </row>
     <row r="6" spans="4:436">
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="11" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="26"/>
+      <c r="I6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="11" t="s">
+      <c r="J6" s="26"/>
+      <c r="K6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="PF6" s="10"/>
-      <c r="PG6" s="10"/>
-      <c r="PH6" s="10"/>
-      <c r="PI6" s="10"/>
-      <c r="PJ6" s="10"/>
-      <c r="PK6" s="10"/>
-      <c r="PL6" s="10"/>
-      <c r="PM6" s="10"/>
-      <c r="PN6" s="10"/>
-      <c r="PO6" s="10"/>
-      <c r="PP6" s="10"/>
-      <c r="PQ6" s="10"/>
-      <c r="PR6" s="10"/>
-      <c r="PS6" s="10"/>
-      <c r="PT6" s="10"/>
+      <c r="L6" s="26"/>
+      <c r="PF6" s="1"/>
+      <c r="PG6" s="1"/>
+      <c r="PH6" s="1"/>
+      <c r="PI6" s="1"/>
+      <c r="PJ6" s="1"/>
+      <c r="PK6" s="1"/>
+      <c r="PL6" s="1"/>
+      <c r="PM6" s="1"/>
+      <c r="PN6" s="1"/>
+      <c r="PO6" s="1"/>
+      <c r="PP6" s="1"/>
+      <c r="PQ6" s="1"/>
+      <c r="PR6" s="1"/>
+      <c r="PS6" s="1"/>
+      <c r="PT6" s="1"/>
     </row>
     <row r="7" spans="4:436">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="5">
+      <c r="H7" s="16"/>
+      <c r="I7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6">
         <v>44846</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="PF7" s="10"/>
-      <c r="PG7" s="10"/>
-      <c r="PH7" s="10"/>
-      <c r="PI7" s="10"/>
-      <c r="PJ7" s="10"/>
-      <c r="PK7" s="10"/>
-      <c r="PL7" s="10"/>
-      <c r="PM7" s="10"/>
-      <c r="PN7" s="10"/>
-      <c r="PO7" s="10"/>
-      <c r="PP7" s="10"/>
-      <c r="PQ7" s="10"/>
-      <c r="PR7" s="10"/>
-      <c r="PS7" s="10"/>
-      <c r="PT7" s="10"/>
+      <c r="L7" s="5"/>
+      <c r="PF7" s="1"/>
+      <c r="PG7" s="1"/>
+      <c r="PH7" s="1"/>
+      <c r="PI7" s="1"/>
+      <c r="PJ7" s="1"/>
+      <c r="PK7" s="1"/>
+      <c r="PL7" s="1"/>
+      <c r="PM7" s="1"/>
+      <c r="PN7" s="1"/>
+      <c r="PO7" s="1"/>
+      <c r="PP7" s="1"/>
+      <c r="PQ7" s="1"/>
+      <c r="PR7" s="1"/>
+      <c r="PS7" s="1"/>
+      <c r="PT7" s="1"/>
     </row>
     <row r="8" spans="4:436">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="5">
+      <c r="H8" s="16"/>
+      <c r="I8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6">
         <v>44846</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="PF8" s="10"/>
-      <c r="PG8" s="10"/>
-      <c r="PH8" s="10"/>
-      <c r="PI8" s="10"/>
-      <c r="PJ8" s="10"/>
-      <c r="PK8" s="10"/>
-      <c r="PL8" s="10"/>
-      <c r="PM8" s="10"/>
-      <c r="PN8" s="10"/>
-      <c r="PO8" s="10"/>
-      <c r="PP8" s="10"/>
-      <c r="PQ8" s="10"/>
-      <c r="PR8" s="10"/>
-      <c r="PS8" s="10"/>
-      <c r="PT8" s="10"/>
+      <c r="L8" s="5"/>
+      <c r="PF8" s="1"/>
+      <c r="PG8" s="1"/>
+      <c r="PH8" s="1"/>
+      <c r="PI8" s="1"/>
+      <c r="PJ8" s="1"/>
+      <c r="PK8" s="1"/>
+      <c r="PL8" s="1"/>
+      <c r="PM8" s="1"/>
+      <c r="PN8" s="1"/>
+      <c r="PO8" s="1"/>
+      <c r="PP8" s="1"/>
+      <c r="PQ8" s="1"/>
+      <c r="PR8" s="1"/>
+      <c r="PS8" s="1"/>
+      <c r="PT8" s="1"/>
     </row>
     <row r="9" spans="4:436">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="5">
+      <c r="H9" s="16"/>
+      <c r="I9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6">
         <v>44853</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="PF9" s="10"/>
-      <c r="PG9" s="10"/>
-      <c r="PH9" s="10"/>
-      <c r="PI9" s="10"/>
-      <c r="PJ9" s="10"/>
-      <c r="PK9" s="10"/>
-      <c r="PL9" s="10"/>
-      <c r="PM9" s="10"/>
-      <c r="PN9" s="10"/>
-      <c r="PO9" s="10"/>
-      <c r="PP9" s="10"/>
-      <c r="PQ9" s="10"/>
-      <c r="PR9" s="10"/>
-      <c r="PS9" s="10"/>
-      <c r="PT9" s="10"/>
+      <c r="L9" s="5"/>
+      <c r="PF9" s="1"/>
+      <c r="PG9" s="1"/>
+      <c r="PH9" s="1"/>
+      <c r="PI9" s="1"/>
+      <c r="PJ9" s="1"/>
+      <c r="PK9" s="1"/>
+      <c r="PL9" s="1"/>
+      <c r="PM9" s="1"/>
+      <c r="PN9" s="1"/>
+      <c r="PO9" s="1"/>
+      <c r="PP9" s="1"/>
+      <c r="PQ9" s="1"/>
+      <c r="PR9" s="1"/>
+      <c r="PS9" s="1"/>
+      <c r="PT9" s="1"/>
     </row>
     <row r="10" spans="4:436">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="1" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="5">
+      <c r="H10" s="16"/>
+      <c r="I10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6">
         <v>44853</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="PF10" s="10"/>
-      <c r="PG10" s="10"/>
-      <c r="PH10" s="10"/>
-      <c r="PI10" s="10"/>
-      <c r="PJ10" s="10"/>
-      <c r="PK10" s="10"/>
-      <c r="PL10" s="10"/>
-      <c r="PM10" s="10"/>
-      <c r="PN10" s="10"/>
-      <c r="PO10" s="10"/>
-      <c r="PP10" s="10"/>
-      <c r="PQ10" s="10"/>
-      <c r="PR10" s="10"/>
-      <c r="PS10" s="10"/>
-      <c r="PT10" s="10"/>
+      <c r="L10" s="5"/>
+      <c r="PF10" s="1"/>
+      <c r="PG10" s="1"/>
+      <c r="PH10" s="1"/>
+      <c r="PI10" s="1"/>
+      <c r="PJ10" s="1"/>
+      <c r="PK10" s="1"/>
+      <c r="PL10" s="1"/>
+      <c r="PM10" s="1"/>
+      <c r="PN10" s="1"/>
+      <c r="PO10" s="1"/>
+      <c r="PP10" s="1"/>
+      <c r="PQ10" s="1"/>
+      <c r="PR10" s="1"/>
+      <c r="PS10" s="1"/>
+      <c r="PT10" s="1"/>
     </row>
     <row r="11" spans="4:436">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="5">
+      <c r="H11" s="16"/>
+      <c r="I11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6">
         <v>44860</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="4:436">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="2"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="4:436">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="5">
+      <c r="H13" s="16"/>
+      <c r="I13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6">
         <v>44866</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="4:436">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="5">
+      <c r="H14" s="16"/>
+      <c r="I14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6">
         <v>44866</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="4:436">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="5">
+      <c r="H15" s="16"/>
+      <c r="I15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6">
         <v>44866</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="4:436">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="5">
+      <c r="H16" s="16"/>
+      <c r="I16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6">
         <v>44872</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="1" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="5">
+      <c r="H17" s="16"/>
+      <c r="I17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6">
         <v>44872</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="1" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="5">
+      <c r="H18" s="16"/>
+      <c r="I18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6">
         <v>44876</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="1" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="5">
+      <c r="H19" s="16"/>
+      <c r="I19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6">
         <v>44876</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="1" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="5">
+      <c r="H20" s="16"/>
+      <c r="I20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6">
         <v>44876</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="4:12">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="1" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="5">
+      <c r="H21" s="16"/>
+      <c r="I21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6">
         <v>44876</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="1" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="5">
+      <c r="H22" s="16"/>
+      <c r="I22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6">
         <v>44876</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="6">
+      <c r="H23" s="21"/>
+      <c r="I23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8">
         <v>44876</v>
       </c>
-      <c r="L23" s="4"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="7" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="5">
+      <c r="H24" s="23"/>
+      <c r="I24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="6">
         <v>44876</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D1:L5"/>
@@ -1235,6 +1262,15 @@
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Munkanaplo.xlsx
+++ b/Munkanaplo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totrob846\Documents\GitHub\Kirajok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tothr\Desktop\GitHub\Kirajok\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF537F6-2C63-4831-9B32-948BF474A8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1350" windowWidth="17280" windowHeight="10890"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Lucky Kávézó munkapnapló</t>
   </si>
@@ -104,19 +105,36 @@
     <t>Kiszler Bence</t>
   </si>
   <si>
-    <t>nincs kész</t>
+    <t>Kész</t>
+  </si>
+  <si>
+    <t>Betuk szinezese</t>
+  </si>
+  <si>
+    <t>Képek szelei</t>
+  </si>
+  <si>
+    <t>Kiszler bence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,6 +166,15 @@
       <b/>
       <sz val="11"/>
       <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -327,68 +354,75 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -669,31 +703,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:PT24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D1:PT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:436">
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
       <c r="PF1" s="1"/>
       <c r="PG1" s="1"/>
       <c r="PH1" s="1"/>
@@ -710,16 +744,16 @@
       <c r="PS1" s="1"/>
       <c r="PT1" s="1"/>
     </row>
-    <row r="2" spans="4:436">
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+    <row r="2" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
       <c r="PF2" s="1"/>
       <c r="PG2" s="1"/>
       <c r="PH2" s="1"/>
@@ -736,16 +770,16 @@
       <c r="PS2" s="1"/>
       <c r="PT2" s="1"/>
     </row>
-    <row r="3" spans="4:436">
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+    <row r="3" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
       <c r="PF3" s="1"/>
       <c r="PG3" s="1"/>
       <c r="PH3" s="1"/>
@@ -762,16 +796,16 @@
       <c r="PS3" s="1"/>
       <c r="PT3" s="1"/>
     </row>
-    <row r="4" spans="4:436">
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+    <row r="4" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
       <c r="PF4" s="1"/>
       <c r="PG4" s="1"/>
       <c r="PH4" s="1"/>
@@ -788,16 +822,16 @@
       <c r="PS4" s="1"/>
       <c r="PT4" s="1"/>
     </row>
-    <row r="5" spans="4:436">
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+    <row r="5" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
       <c r="PF5" s="1"/>
       <c r="PG5" s="1"/>
       <c r="PH5" s="1"/>
@@ -814,22 +848,22 @@
       <c r="PS5" s="1"/>
       <c r="PT5" s="1"/>
     </row>
-    <row r="6" spans="4:436">
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="25" t="s">
+    <row r="6" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="25" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="25" t="s">
+      <c r="J6" s="24"/>
+      <c r="K6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="24"/>
       <c r="PF6" s="1"/>
       <c r="PG6" s="1"/>
       <c r="PH6" s="1"/>
@@ -846,24 +880,24 @@
       <c r="PS6" s="1"/>
       <c r="PT6" s="1"/>
     </row>
-    <row r="7" spans="4:436">
-      <c r="D7" s="12" t="s">
+    <row r="7" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6">
+      <c r="H7" s="7"/>
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="28">
         <v>44846</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="2"/>
       <c r="PF7" s="1"/>
       <c r="PG7" s="1"/>
       <c r="PH7" s="1"/>
@@ -880,24 +914,24 @@
       <c r="PS7" s="1"/>
       <c r="PT7" s="1"/>
     </row>
-    <row r="8" spans="4:436">
-      <c r="D8" s="12" t="s">
+    <row r="8" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6">
+      <c r="H8" s="7"/>
+      <c r="I8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="28">
         <v>44846</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="2"/>
       <c r="PF8" s="1"/>
       <c r="PG8" s="1"/>
       <c r="PH8" s="1"/>
@@ -914,24 +948,24 @@
       <c r="PS8" s="1"/>
       <c r="PT8" s="1"/>
     </row>
-    <row r="9" spans="4:436">
-      <c r="D9" s="12" t="s">
+    <row r="9" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6">
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="28">
         <v>44853</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="2"/>
       <c r="PF9" s="1"/>
       <c r="PG9" s="1"/>
       <c r="PH9" s="1"/>
@@ -948,24 +982,24 @@
       <c r="PS9" s="1"/>
       <c r="PT9" s="1"/>
     </row>
-    <row r="10" spans="4:436">
-      <c r="D10" s="12" t="s">
+    <row r="10" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6">
+      <c r="H10" s="7"/>
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="28">
         <v>44853</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="2"/>
       <c r="PF10" s="1"/>
       <c r="PG10" s="1"/>
       <c r="PH10" s="1"/>
@@ -982,274 +1016,348 @@
       <c r="PS10" s="1"/>
       <c r="PT10" s="1"/>
     </row>
-    <row r="11" spans="4:436">
-      <c r="D11" s="12" t="s">
+    <row r="11" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6">
+      <c r="H11" s="7"/>
+      <c r="I11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="28">
         <v>44860</v>
       </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="4:436">
-      <c r="D12" s="12" t="s">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="4:436">
-      <c r="D13" s="12" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="28">
+        <v>44892</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6">
+      <c r="H13" s="7"/>
+      <c r="I13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="28">
         <v>44866</v>
       </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="4:436">
-      <c r="D14" s="12" t="s">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6">
+      <c r="H14" s="7"/>
+      <c r="I14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="28">
         <v>44866</v>
       </c>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="4:436">
-      <c r="D15" s="12" t="s">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6">
+      <c r="H15" s="7"/>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="28">
         <v>44866</v>
       </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="4:436">
-      <c r="D16" s="12" t="s">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="4:436" x14ac:dyDescent="0.3">
+      <c r="D16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6">
+      <c r="H16" s="7"/>
+      <c r="I16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="28">
         <v>44872</v>
       </c>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="4:12">
-      <c r="D17" s="12" t="s">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6">
+      <c r="H17" s="7"/>
+      <c r="I17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="28">
         <v>44872</v>
       </c>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="4:12">
-      <c r="D18" s="12" t="s">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6">
+      <c r="H18" s="7"/>
+      <c r="I18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="28">
         <v>44876</v>
       </c>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="4:12">
-      <c r="D19" s="12" t="s">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6">
+      <c r="H19" s="7"/>
+      <c r="I19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="28">
         <v>44876</v>
       </c>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="4:12">
-      <c r="D20" s="12" t="s">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6">
+      <c r="H20" s="7"/>
+      <c r="I20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="28">
         <v>44876</v>
       </c>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="4:12">
-      <c r="D21" s="12" t="s">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6">
+      <c r="H21" s="7"/>
+      <c r="I21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="28">
         <v>44876</v>
       </c>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="4:12">
-      <c r="D22" s="12" t="s">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6">
+      <c r="H22" s="7"/>
+      <c r="I22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="28">
         <v>44876</v>
       </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="4:12">
-      <c r="D23" s="17" t="s">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8">
+      <c r="H23" s="9"/>
+      <c r="I23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="29">
         <v>44876</v>
       </c>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="4:12">
-      <c r="D24" s="22" t="s">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="30">
+        <v>44903</v>
+      </c>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="30">
+        <v>44903</v>
+      </c>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="6">
-        <v>44876</v>
-      </c>
-      <c r="L24" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="28">
+        <v>44903</v>
+      </c>
+      <c r="L28" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="28">
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D28:F28"/>
     <mergeCell ref="D1:L5"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D6:F6"/>
@@ -1264,13 +1372,6 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
